--- a/ExcelBus/Bus.xlsx
+++ b/ExcelBus/Bus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>R.N</t>
   </si>
@@ -44,97 +44,109 @@
     <t>taroudant</t>
   </si>
   <si>
+    <t>sidi ifni</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>hamza</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>knitra</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ilyass</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>dakhla</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>badar</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>oujda</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>agadir</t>
   </si>
   <si>
-    <t>2022-11-30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Anas</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>casablanca</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Hamza</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>marrakech</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Badre</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>laayoune</t>
-  </si>
-  <si>
-    <t>2022-12-11</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Ilyass</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>inzagen</t>
-  </si>
-  <si>
-    <t>2022-12-09</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>khalid</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,39 +254,39 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>25</v>
@@ -283,24 +295,24 @@
         <v>26</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>31</v>
@@ -312,33 +324,59 @@
         <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="G6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="H6" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="B7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>40</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
